--- a/registro_ponto_melhorado.xlsx
+++ b/registro_ponto_melhorado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,32 +473,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:57</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -506,32 +506,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18:24</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -539,32 +539,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:22</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -572,32 +572,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>08:34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -605,32 +605,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -638,32 +638,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -671,27 +671,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -699,37 +699,41 @@
           <t>08:02</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Saída antecipada autorizada.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:54</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -737,32 +741,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>09:11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -770,32 +774,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18:36</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -803,65 +807,69 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:36</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>07:57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>07:58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Atraso justificado.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -869,32 +877,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>18:11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -902,32 +910,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -935,32 +943,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -968,526 +976,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>08:48</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>12:44</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13:54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>18:01</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>Almoço prolongado com aprovação.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>09:11</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14:22</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>07:58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-04-28</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>13:01</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14:19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>18:18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>09:06</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>13:05</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>18:33</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-04-30</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>08:44</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>17:58</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>08:24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13:15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>17:38</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>08:01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>08:16</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>13:19</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>17:29</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>07:59</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-05-05</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>17:04</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>07:58</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>08:31</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12:16</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13:38</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>17:53</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>08:52</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>12:27</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13:32</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>17:59</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Almoço prolongado com aprovação.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>09:01</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>12:57</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>13:58</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>18:04</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>08:25</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>09:08</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>18:39</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>09:08</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>12:49</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>13:49</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>18:08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Saída antecipada autorizada.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>09:01</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>12:54</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>18:14</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>07:59</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>00:26</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>Total de horas trabalhadas</t>
         </is>
